--- a/DSL/TestPlan1.xlsx
+++ b/DSL/TestPlan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>Step</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Check parameter</t>
   </si>
   <si>
+    <t>Max waiting (ms)</t>
+  </si>
+  <si>
     <t>Report</t>
   </si>
   <si>
@@ -101,6 +104,39 @@
   </si>
   <si>
     <t>Empty array</t>
+  </si>
+  <si>
+    <t>Add previously bought</t>
+  </si>
+  <si>
+    <t>home#normal:cart:repeatPrevious</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>Array size</t>
+  </si>
+  <si>
+    <t>home#normal:cart:items$first</t>
+  </si>
+  <si>
+    <t>Mark id as</t>
+  </si>
+  <si>
+    <t>TEST_ITEM</t>
+  </si>
+  <si>
+    <t>Open chat item details</t>
+  </si>
+  <si>
+    <t>details#{id}</t>
+  </si>
+  <si>
+    <t>id=TEST_ITEM</t>
   </si>
   <si>
     <t>Path to the UI element
@@ -110,9 +146,18 @@
 @ index</t>
   </si>
   <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
+    <t>div</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -125,28 +170,52 @@
     <t>cart</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>items</t>
   </si>
   <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>$index</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>remove</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>spinner</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>repeatPrevious</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <t>infoPanel</t>
+  </si>
+  <si>
     <t>Parameter meaning</t>
-  </si>
-  <si>
-    <t>Click</t>
   </si>
   <si>
     <t>Keyboard</t>
@@ -499,6 +568,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -528,6 +598,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -557,6 +628,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -586,6 +658,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -612,7 +685,9 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -631,101 +706,103 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -734,14 +811,34 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="4"/>
@@ -749,13 +846,30 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17">
-      <c r="B17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19">
@@ -764,9 +878,22 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="4"/>
+      <c r="G20" s="3">
+        <v>300.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="4"/>
@@ -848,11 +975,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C6:C35">
       <formula1>Actions!$A$6:$A$30</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6:B35">
+      <formula1>Subjects!$A$6:$A$35</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E6:E35">
       <formula1>Checks!$A$6:$A$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6:B35">
-      <formula1>Subjects!$A$6:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -870,20 +997,21 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="46.63"/>
-    <col customWidth="1" min="2" max="2" width="2.5"/>
-    <col customWidth="1" min="4" max="4" width="2.5"/>
-    <col customWidth="1" min="6" max="6" width="2.88"/>
-    <col customWidth="1" min="8" max="8" width="2.5"/>
-    <col customWidth="1" min="10" max="10" width="2.88"/>
-    <col customWidth="1" min="12" max="12" width="2.75"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="2.5"/>
+    <col customWidth="1" min="5" max="5" width="2.5"/>
+    <col customWidth="1" min="7" max="7" width="2.88"/>
+    <col customWidth="1" min="9" max="9" width="2.5"/>
+    <col customWidth="1" min="11" max="11" width="2.88"/>
+    <col customWidth="1" min="13" max="13" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -895,10 +1023,11 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -910,10 +1039,11 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -925,10 +1055,11 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="5"/>
-      <c r="Q4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -940,55 +1071,58 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.0</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:L5" si="1">B5+1</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:M5" si="1">C5+1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1004,210 +1138,395 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <f t="shared" ref="A6:A9" si="2">CONCATENATE(C6:Z6)</f>
+        <f t="shared" ref="A6:A11" si="2">CONCATENATE(D6:AA6)</f>
         <v>home</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>home#normal</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>home#normal:cart</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>home#normal:cart:items</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <f t="shared" ref="A12:A14" si="3">CONCATENATE(C12:Z12)</f>
-        <v>home#normal:cart:items@$index:remove</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="str">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>home#normal:cart:items$first</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>home#normal:cart:items$last</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="str">
+        <f t="shared" ref="A17:A20" si="3">CONCATENATE(D17:AA17)</f>
+        <v>home#normal:cart:items$index:remove</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>home#normal:cart:spinner</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="str">
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="3"/>
         <v>home#normal:cart:buy</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>40</v>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>home#normal:cart:repeatPrevious</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <f t="shared" ref="A22:A23" si="4">CONCATENATE(D22:AA22)</f>
+        <v>details#{id}</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>details#{id}:infoPanel</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:P4"/>
+    <mergeCell ref="C1:Q4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1344,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1373,52 +1692,57 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1468,32 +1792,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
